--- a/mbs-perturbation/bottleneck/randomForest/bottleneck-randomForest-results.xlsx
+++ b/mbs-perturbation/bottleneck/randomForest/bottleneck-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1151515151515152</v>
+        <v>0.1595744680851064</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2065217391304348</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7157894736842105</v>
+        <v>0.6539615846338536</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8609547123623011</v>
+        <v>0.8187274909963986</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.5909502262443439</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.7761689291101056</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3377260981912145</v>
+        <v>0.6184012066365008</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4801731601731601</v>
+        <v>0.4319148936170213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.427485380116959</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2792881963362513</v>
+        <v>0.0984984984984985</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7828940568475453</v>
+        <v>0.6916418875242405</v>
       </c>
     </row>
   </sheetData>
